--- a/results/7_PC.xlsx
+++ b/results/7_PC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>file_loc</t>
   </si>
@@ -28,124 +28,244 @@
     <t>perimeter</t>
   </si>
   <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/8.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/9.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/14.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/28.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/29.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/15.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/17.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/16.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/12.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/13.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/39.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/11.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/10.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/38.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/35.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/21.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/20.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/34.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/22.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/36.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/37.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/23.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/27.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/33.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/32.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/26.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/18.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/30.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/24.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/25.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/31.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/19.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/4.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/5.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/7.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/6.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/40.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/2.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/3.png</t>
-  </si>
-  <si>
-    <t>/Users/alex/Documents/GitHub/Visual-Similarity/7_png/chinese/1.png</t>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c33.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c27.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c8.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k12.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k13.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c9.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c26.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c32.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c24.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c30.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c18.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k39.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k11.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k10.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k38.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c19.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c31.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c25.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c21.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c35.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k14.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k28.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k29.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k15.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c34.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c20.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c36.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c22.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k17.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k16.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c23.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c37.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k1.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k3.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k2.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k6.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k7.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k5.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k4.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c40.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k9.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k8.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k40.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c12.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c1.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k27.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k33.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k32.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k26.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c13.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c11.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c39.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c2.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k18.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k30.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k24.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k25.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k31.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k19.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c3.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c38.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c10.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c28.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c14.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c7.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k35.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k21.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k20.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k34.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c6.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c15.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c29.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c17.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c4.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k22.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k36.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k37.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/k23.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c5.png</t>
+  </si>
+  <si>
+    <t>/Users/alex/Documents/GitHub/Visual-Similarity/Data/7_Maurer_inprep_followup/c16.png</t>
   </si>
 </sst>
 </file>
@@ -503,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,13 +651,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>12.74494818058002</v>
+        <v>14.45055488893457</v>
       </c>
       <c r="D2">
-        <v>677.3176470588236</v>
+        <v>776.9607843137255</v>
       </c>
       <c r="E2">
-        <v>329.359477124183</v>
+        <v>375.6183006535948</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -548,13 +668,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>12.40648589679053</v>
+        <v>14.3753884673992</v>
       </c>
       <c r="D3">
-        <v>727.9607843137255</v>
+        <v>721.7960784313725</v>
       </c>
       <c r="E3">
-        <v>336.8862745098039</v>
+        <v>361.0954248366013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -565,13 +685,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>15.37177364620379</v>
+        <v>12.74494818058002</v>
       </c>
       <c r="D4">
-        <v>651.121568627451</v>
+        <v>677.3176470588236</v>
       </c>
       <c r="E4">
-        <v>354.6483660130719</v>
+        <v>329.359477124183</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -582,13 +702,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>16.19994281741151</v>
+        <v>13.64614479455309</v>
       </c>
       <c r="D5">
-        <v>763.9333333333333</v>
+        <v>636.756862745098</v>
       </c>
       <c r="E5">
-        <v>394.3568627450981</v>
+        <v>330.443137254902</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -599,13 +719,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>13.20492770210778</v>
+        <v>11.65673508263477</v>
       </c>
       <c r="D6">
-        <v>755.6941176470589</v>
+        <v>542.8039215686274</v>
       </c>
       <c r="E6">
-        <v>354.116339869281</v>
+        <v>281.9777777777778</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,13 +736,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>13.01469650401482</v>
+        <v>12.40648589679053</v>
       </c>
       <c r="D7">
-        <v>768.8470588235294</v>
+        <v>727.9607843137255</v>
       </c>
       <c r="E7">
-        <v>354.602614379085</v>
+        <v>336.8862745098039</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -633,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>10.96282940953575</v>
+        <v>15.51873230096716</v>
       </c>
       <c r="D8">
-        <v>714.1921568627452</v>
+        <v>682.1137254901961</v>
       </c>
       <c r="E8">
-        <v>313.6705882352941</v>
+        <v>364.721568627451</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -650,13 +770,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>12.63211955930735</v>
+        <v>13.91281286100886</v>
       </c>
       <c r="D9">
-        <v>712.4745098039216</v>
+        <v>654.5921568627451</v>
       </c>
       <c r="E9">
-        <v>336.3006535947712</v>
+        <v>338.2967320261438</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -667,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>16.52333992347217</v>
+        <v>14.72171637524032</v>
       </c>
       <c r="D10">
-        <v>767.6117647058824</v>
+        <v>777.8156862745099</v>
       </c>
       <c r="E10">
-        <v>399.2313725490196</v>
+        <v>379.3346405228758</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -684,13 +804,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>12.29651650410104</v>
+        <v>12.96616466939474</v>
       </c>
       <c r="D11">
-        <v>676.635294117647</v>
+        <v>702.2313725490196</v>
       </c>
       <c r="E11">
-        <v>323.3503267973856</v>
+        <v>338.2601307189543</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -701,13 +821,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>16.83119968451394</v>
+        <v>14.36612528982477</v>
       </c>
       <c r="D12">
-        <v>801.4862745098039</v>
+        <v>714.3764705882353</v>
       </c>
       <c r="E12">
-        <v>411.7281045751634</v>
+        <v>359.118954248366</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -718,13 +838,13 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>11.20568546488201</v>
+        <v>13.69201720883145</v>
       </c>
       <c r="D13">
-        <v>595.6941176470589</v>
+        <v>714.9411764705883</v>
       </c>
       <c r="E13">
-        <v>289.6248366013072</v>
+        <v>350.7307189542483</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -735,13 +855,13 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>10.99607593347604</v>
+        <v>12.13733575265517</v>
       </c>
       <c r="D14">
-        <v>627.9058823529411</v>
+        <v>582.6705882352941</v>
       </c>
       <c r="E14">
-        <v>294.5581699346405</v>
+        <v>298.1111111111111</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -752,13 +872,13 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>15.72754152434249</v>
+        <v>9.39925101674743</v>
       </c>
       <c r="D15">
-        <v>898.2274509803922</v>
+        <v>490.4980392156863</v>
       </c>
       <c r="E15">
-        <v>421.3359477124183</v>
+        <v>240.6967320261438</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -769,13 +889,13 @@
         <v>18</v>
       </c>
       <c r="C16">
-        <v>17.87115069923897</v>
+        <v>14.65698936768168</v>
       </c>
       <c r="D16">
-        <v>783.0196078431372</v>
+        <v>732.5411764705882</v>
       </c>
       <c r="E16">
-        <v>419.3411764705882</v>
+        <v>367.318954248366</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -786,13 +906,13 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>13.54216869810169</v>
+        <v>13.33726864915671</v>
       </c>
       <c r="D17">
-        <v>746.2509803921569</v>
+        <v>633.8823529411765</v>
       </c>
       <c r="E17">
-        <v>356.3620915032679</v>
+        <v>325.9437908496732</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -803,13 +923,13 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>14.23660585549961</v>
+        <v>14.48271334419694</v>
       </c>
       <c r="D18">
-        <v>761.1176470588235</v>
+        <v>814.7490196078431</v>
       </c>
       <c r="E18">
-        <v>369.0065359477124</v>
+        <v>385.0718954248366</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -820,13 +940,13 @@
         <v>21</v>
       </c>
       <c r="C19">
-        <v>18.63406169094249</v>
+        <v>15.19787057299223</v>
       </c>
       <c r="D19">
-        <v>850.9529411764706</v>
+        <v>806.1882352941177</v>
       </c>
       <c r="E19">
-        <v>446.3869281045752</v>
+        <v>392.3869281045752</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -837,13 +957,13 @@
         <v>22</v>
       </c>
       <c r="C20">
-        <v>13.74891226080892</v>
+        <v>13.54216869810169</v>
       </c>
       <c r="D20">
-        <v>752.1137254901961</v>
+        <v>746.2509803921569</v>
       </c>
       <c r="E20">
-        <v>360.4797385620915</v>
+        <v>356.3620915032679</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -854,13 +974,13 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>13.28442170993542</v>
+        <v>17.87115069923897</v>
       </c>
       <c r="D21">
-        <v>752.9921568627451</v>
+        <v>783.0196078431372</v>
       </c>
       <c r="E21">
-        <v>354.5450980392157</v>
+        <v>419.3411764705882</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -871,13 +991,13 @@
         <v>24</v>
       </c>
       <c r="C22">
-        <v>15.38724634619733</v>
+        <v>11.66621092279299</v>
       </c>
       <c r="D22">
-        <v>822.4313725490196</v>
+        <v>580.6392156862745</v>
       </c>
       <c r="E22">
-        <v>398.7816993464052</v>
+        <v>291.7581699346405</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -888,13 +1008,13 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <v>12.80880662392297</v>
+        <v>12.0036843558581</v>
       </c>
       <c r="D23">
-        <v>813.8980392156863</v>
+        <v>624.8588235294118</v>
       </c>
       <c r="E23">
-        <v>361.9464052287582</v>
+        <v>307.0104575163399</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -905,13 +1025,13 @@
         <v>26</v>
       </c>
       <c r="C24">
-        <v>14.3753884673992</v>
+        <v>13.66080797403971</v>
       </c>
       <c r="D24">
-        <v>721.7960784313725</v>
+        <v>680.8901960784314</v>
       </c>
       <c r="E24">
-        <v>361.0954248366013</v>
+        <v>341.8862745098039</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -922,13 +1042,13 @@
         <v>27</v>
       </c>
       <c r="C25">
-        <v>14.45055488893457</v>
+        <v>11.53819489006687</v>
       </c>
       <c r="D25">
-        <v>776.9607843137255</v>
+        <v>587.0235294117647</v>
       </c>
       <c r="E25">
-        <v>375.6183006535948</v>
+        <v>291.7437908496732</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -939,13 +1059,13 @@
         <v>28</v>
       </c>
       <c r="C26">
-        <v>13.91281286100886</v>
+        <v>18.63406169094249</v>
       </c>
       <c r="D26">
-        <v>654.5921568627451</v>
+        <v>850.9529411764706</v>
       </c>
       <c r="E26">
-        <v>338.2967320261438</v>
+        <v>446.3869281045752</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -956,13 +1076,13 @@
         <v>29</v>
       </c>
       <c r="C27">
-        <v>15.51873230096716</v>
+        <v>14.23660585549961</v>
       </c>
       <c r="D27">
-        <v>682.1137254901961</v>
+        <v>761.1176470588235</v>
       </c>
       <c r="E27">
-        <v>364.721568627451</v>
+        <v>369.0065359477124</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -973,13 +1093,13 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>14.36612528982477</v>
+        <v>13.28442170993542</v>
       </c>
       <c r="D28">
-        <v>714.3764705882353</v>
+        <v>752.9921568627451</v>
       </c>
       <c r="E28">
-        <v>359.118954248366</v>
+        <v>354.5450980392157</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -990,13 +1110,13 @@
         <v>31</v>
       </c>
       <c r="C29">
-        <v>12.96616466939474</v>
+        <v>13.74891226080892</v>
       </c>
       <c r="D29">
-        <v>702.2313725490196</v>
+        <v>752.1137254901961</v>
       </c>
       <c r="E29">
-        <v>338.2601307189543</v>
+        <v>360.4797385620915</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1007,13 +1127,13 @@
         <v>32</v>
       </c>
       <c r="C30">
-        <v>14.72171637524032</v>
+        <v>12.13709332887556</v>
       </c>
       <c r="D30">
-        <v>777.8156862745099</v>
+        <v>603</v>
       </c>
       <c r="E30">
-        <v>379.3346405228758</v>
+        <v>303.2640522875817</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1024,13 +1144,13 @@
         <v>33</v>
       </c>
       <c r="C31">
-        <v>15.19787057299223</v>
+        <v>13.17504030781205</v>
       </c>
       <c r="D31">
-        <v>806.1882352941177</v>
+        <v>580.9254901960784</v>
       </c>
       <c r="E31">
-        <v>392.3869281045752</v>
+        <v>310.1281045751634</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1041,13 +1161,13 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>14.48271334419694</v>
+        <v>12.80880662392297</v>
       </c>
       <c r="D32">
-        <v>814.7490196078431</v>
+        <v>813.8980392156863</v>
       </c>
       <c r="E32">
-        <v>385.0718954248366</v>
+        <v>361.9464052287582</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1058,13 +1178,13 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>13.33726864915671</v>
+        <v>15.38724634619733</v>
       </c>
       <c r="D33">
-        <v>633.8823529411765</v>
+        <v>822.4313725490196</v>
       </c>
       <c r="E33">
-        <v>325.9437908496732</v>
+        <v>398.7816993464052</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1075,13 +1195,13 @@
         <v>36</v>
       </c>
       <c r="C34">
-        <v>10.31524820614325</v>
+        <v>8.751874272719332</v>
       </c>
       <c r="D34">
-        <v>579.1607843137255</v>
+        <v>372.1686274509804</v>
       </c>
       <c r="E34">
-        <v>273.9960784313726</v>
+        <v>202.3137254901961</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1092,13 +1212,13 @@
         <v>37</v>
       </c>
       <c r="C35">
-        <v>11.20521150335443</v>
+        <v>8.302247957062761</v>
       </c>
       <c r="D35">
-        <v>723.4117647058823</v>
+        <v>438.3137254901961</v>
       </c>
       <c r="E35">
-        <v>319.159477124183</v>
+        <v>213.843137254902</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1109,13 +1229,13 @@
         <v>38</v>
       </c>
       <c r="C36">
-        <v>9.841837664161693</v>
+        <v>8.13473682235708</v>
       </c>
       <c r="D36">
-        <v>555.6117647058824</v>
+        <v>422.0627450980392</v>
       </c>
       <c r="E36">
-        <v>262.1372549019608</v>
+        <v>207.7137254901961</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1126,13 +1246,13 @@
         <v>39</v>
       </c>
       <c r="C37">
-        <v>11.05118567764188</v>
+        <v>9.259728744730706</v>
       </c>
       <c r="D37">
-        <v>619.0705882352942</v>
+        <v>485.6509803921568</v>
       </c>
       <c r="E37">
-        <v>293.2104575163399</v>
+        <v>237.7202614379085</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1143,13 +1263,13 @@
         <v>40</v>
       </c>
       <c r="C38">
-        <v>20.81661228325529</v>
+        <v>9.811918589709396</v>
       </c>
       <c r="D38">
-        <v>777.635294117647</v>
+        <v>528.0745098039216</v>
       </c>
       <c r="E38">
-        <v>451.0222222222222</v>
+        <v>255.1699346405229</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1160,13 +1280,13 @@
         <v>41</v>
       </c>
       <c r="C39">
-        <v>9.257294778645624</v>
+        <v>10.39544460682178</v>
       </c>
       <c r="D39">
-        <v>503.835294117647</v>
+        <v>502.0901960784313</v>
       </c>
       <c r="E39">
-        <v>242.0980392156863</v>
+        <v>256.1045751633987</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1177,13 +1297,13 @@
         <v>42</v>
       </c>
       <c r="C40">
-        <v>11.20920913610466</v>
+        <v>9.023314040632146</v>
       </c>
       <c r="D40">
-        <v>416.7607843137255</v>
+        <v>426.7529411764706</v>
       </c>
       <c r="E40">
-        <v>242.2901960784314</v>
+        <v>219.9764705882353</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1194,13 +1314,693 @@
         <v>43</v>
       </c>
       <c r="C41">
+        <v>20.81661228325529</v>
+      </c>
+      <c r="D41">
+        <v>777.635294117647</v>
+      </c>
+      <c r="E41">
+        <v>451.0222222222222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42">
+        <v>11.835346175754</v>
+      </c>
+      <c r="D42">
+        <v>572.2901960784313</v>
+      </c>
+      <c r="E42">
+        <v>291.7450980392157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43">
+        <v>11.47896899139642</v>
+      </c>
+      <c r="D43">
+        <v>570.7803921568627</v>
+      </c>
+      <c r="E43">
+        <v>286.9398692810457</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44">
+        <v>12.72529741902154</v>
+      </c>
+      <c r="D44">
+        <v>729.086274509804</v>
+      </c>
+      <c r="E44">
+        <v>341.4509803921569</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45">
+        <v>16.52333992347217</v>
+      </c>
+      <c r="D45">
+        <v>767.6117647058824</v>
+      </c>
+      <c r="E45">
+        <v>399.2313725490196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46">
         <v>8.889355291709721</v>
       </c>
-      <c r="D41">
+      <c r="D46">
         <v>593.4196078431372</v>
       </c>
-      <c r="E41">
+      <c r="E46">
         <v>257.4666666666666</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47">
+        <v>12.64538830180241</v>
+      </c>
+      <c r="D47">
+        <v>657.7921568627451</v>
+      </c>
+      <c r="E47">
+        <v>323.3071895424837</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48">
+        <v>15.48396698325163</v>
+      </c>
+      <c r="D48">
+        <v>725.1764705882352</v>
+      </c>
+      <c r="E48">
+        <v>375.6366013071896</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49">
+        <v>16.70227723796204</v>
+      </c>
+      <c r="D49">
+        <v>711.7294117647059</v>
+      </c>
+      <c r="E49">
+        <v>386.5006535947712</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50">
+        <v>13.87544897019945</v>
+      </c>
+      <c r="D50">
+        <v>659.7882352941176</v>
+      </c>
+      <c r="E50">
+        <v>339.1803921568628</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51">
+        <v>12.29651650410104</v>
+      </c>
+      <c r="D51">
+        <v>676.635294117647</v>
+      </c>
+      <c r="E51">
+        <v>323.3503267973856</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52">
+        <v>11.20568546488201</v>
+      </c>
+      <c r="D52">
+        <v>595.6941176470589</v>
+      </c>
+      <c r="E52">
+        <v>289.6248366013072</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53">
+        <v>16.83119968451394</v>
+      </c>
+      <c r="D53">
+        <v>801.4862745098039</v>
+      </c>
+      <c r="E53">
+        <v>411.7281045751634</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54">
+        <v>9.257294778645624</v>
+      </c>
+      <c r="D54">
+        <v>503.835294117647</v>
+      </c>
+      <c r="E54">
+        <v>242.0980392156863</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55">
+        <v>12.07292381908104</v>
+      </c>
+      <c r="D55">
+        <v>587.5529411764705</v>
+      </c>
+      <c r="E55">
+        <v>298.562091503268</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56">
+        <v>11.98479538076892</v>
+      </c>
+      <c r="D56">
+        <v>652.7254901960785</v>
+      </c>
+      <c r="E56">
+        <v>313.5346405228758</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57">
+        <v>15.66984262323588</v>
+      </c>
+      <c r="D57">
+        <v>709.0039215686274</v>
+      </c>
+      <c r="E57">
+        <v>373.6470588235294</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58">
+        <v>11.1005471205135</v>
+      </c>
+      <c r="D58">
+        <v>654.5921568627451</v>
+      </c>
+      <c r="E58">
+        <v>302.1777777777778</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59">
+        <v>14.20370343842253</v>
+      </c>
+      <c r="D59">
+        <v>625.6431372549019</v>
+      </c>
+      <c r="E59">
+        <v>334.1712418300654</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60">
+        <v>12.82711090731412</v>
+      </c>
+      <c r="D60">
+        <v>625.8117647058823</v>
+      </c>
+      <c r="E60">
+        <v>317.6078431372549</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61">
+        <v>11.20920913610466</v>
+      </c>
+      <c r="D61">
+        <v>416.7607843137255</v>
+      </c>
+      <c r="E61">
+        <v>242.2901960784314</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62">
+        <v>15.72754152434249</v>
+      </c>
+      <c r="D62">
+        <v>898.2274509803922</v>
+      </c>
+      <c r="E62">
+        <v>421.3359477124183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63">
+        <v>10.99607593347604</v>
+      </c>
+      <c r="D63">
+        <v>627.9058823529411</v>
+      </c>
+      <c r="E63">
+        <v>294.5581699346405</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64">
+        <v>16.19994281741151</v>
+      </c>
+      <c r="D64">
+        <v>763.9333333333333</v>
+      </c>
+      <c r="E64">
+        <v>394.3568627450981</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65">
+        <v>15.37177364620379</v>
+      </c>
+      <c r="D65">
+        <v>651.121568627451</v>
+      </c>
+      <c r="E65">
+        <v>354.6483660130719</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66">
+        <v>9.841837664161693</v>
+      </c>
+      <c r="D66">
+        <v>555.6117647058824</v>
+      </c>
+      <c r="E66">
+        <v>262.1372549019608</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67">
+        <v>13.3889095880603</v>
+      </c>
+      <c r="D67">
+        <v>672.9921568627451</v>
+      </c>
+      <c r="E67">
+        <v>336.4980392156863</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68">
+        <v>14.9856934317283</v>
+      </c>
+      <c r="D68">
+        <v>670.9921568627451</v>
+      </c>
+      <c r="E68">
+        <v>355.4692810457516</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69">
+        <v>12.55564786915165</v>
+      </c>
+      <c r="D69">
+        <v>620.0392156862745</v>
+      </c>
+      <c r="E69">
+        <v>312.7764705882353</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70">
+        <v>13.71251679708559</v>
+      </c>
+      <c r="D70">
+        <v>669.6156862745098</v>
+      </c>
+      <c r="E70">
+        <v>339.6849673202614</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71">
+        <v>11.05118567764188</v>
+      </c>
+      <c r="D71">
+        <v>619.0705882352942</v>
+      </c>
+      <c r="E71">
+        <v>293.2104575163399</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72">
+        <v>13.01469650401482</v>
+      </c>
+      <c r="D72">
+        <v>768.8470588235294</v>
+      </c>
+      <c r="E72">
+        <v>354.602614379085</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73">
+        <v>13.20492770210778</v>
+      </c>
+      <c r="D73">
+        <v>755.6941176470589</v>
+      </c>
+      <c r="E73">
+        <v>354.116339869281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74">
+        <v>10.96282940953575</v>
+      </c>
+      <c r="D74">
+        <v>714.1921568627452</v>
+      </c>
+      <c r="E74">
+        <v>313.6705882352941</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75">
+        <v>10.31524820614325</v>
+      </c>
+      <c r="D75">
+        <v>579.1607843137255</v>
+      </c>
+      <c r="E75">
+        <v>273.9960784313726</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76">
+        <v>13.61034454888303</v>
+      </c>
+      <c r="D76">
+        <v>642.5803921568628</v>
+      </c>
+      <c r="E76">
+        <v>331.5150326797386</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77">
+        <v>11.52992841621209</v>
+      </c>
+      <c r="D77">
+        <v>597.1333333333333</v>
+      </c>
+      <c r="E77">
+        <v>294.1398692810458</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78">
+        <v>12.95128761608777</v>
+      </c>
+      <c r="D78">
+        <v>620.9803921568628</v>
+      </c>
+      <c r="E78">
+        <v>317.9071895424836</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79">
+        <v>11.77942306064947</v>
+      </c>
+      <c r="D79">
+        <v>622.3490196078432</v>
+      </c>
+      <c r="E79">
+        <v>303.5176470588235</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80">
+        <v>11.20521150335443</v>
+      </c>
+      <c r="D80">
+        <v>723.4117647058823</v>
+      </c>
+      <c r="E80">
+        <v>319.159477124183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>83</v>
+      </c>
+      <c r="C81">
+        <v>12.63211955930735</v>
+      </c>
+      <c r="D81">
+        <v>712.4745098039216</v>
+      </c>
+      <c r="E81">
+        <v>336.3006535947712</v>
       </c>
     </row>
   </sheetData>
